--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/DebugConnetCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/DebugConnetCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF8B8E-7346-4935-9369-734AC6ED578D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC8326C-F8B7-4884-81D0-4B4F8E8683A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -289,6 +289,14 @@
   </si>
   <si>
     <t>IsShowEditorLoginMode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsNeedSendEventLog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送eventlog</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +702,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -709,7 +717,7 @@
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="15.21875" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="12" width="19" customWidth="1"/>
+    <col min="11" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -749,7 +757,9 @@
       <c r="L1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M1"/>
+      <c r="M1" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -776,7 +786,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2"/>
+      <c r="M2" s="3"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -803,6 +813,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -851,7 +862,9 @@
       <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M4"/>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -878,6 +891,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -926,6 +940,9 @@
       <c r="L6" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="M6" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
@@ -971,6 +988,9 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
+      <c r="M7" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -1000,6 +1020,9 @@
       <c r="L8" t="b">
         <v>1</v>
       </c>
+      <c r="M8" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -1029,6 +1052,9 @@
       <c r="L9" t="b">
         <v>1</v>
       </c>
+      <c r="M9" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -1068,6 +1094,9 @@
       <c r="L11" t="b">
         <v>1</v>
       </c>
+      <c r="M11" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
@@ -1097,6 +1126,9 @@
       <c r="L12" t="b">
         <v>1</v>
       </c>
+      <c r="M12" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -1126,6 +1158,9 @@
       <c r="L13" t="b">
         <v>1</v>
       </c>
+      <c r="M13" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
@@ -1165,6 +1200,9 @@
       <c r="L15" t="b">
         <v>1</v>
       </c>
+      <c r="M15" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -1194,8 +1232,11 @@
       <c r="L16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
@@ -1223,12 +1264,15 @@
       <c r="L17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1262,8 +1306,11 @@
       <c r="L19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
@@ -1291,8 +1338,11 @@
       <c r="L20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>50</v>
       </c>
@@ -1320,29 +1370,33 @@
       <c r="L21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/DebugConnetCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/DebugConnetCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC8326C-F8B7-4884-81D0-4B4F8E8683A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A6A8A-92D5-4863-BFCE-41C067F37C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,7 +702,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
         <v>31</v>
       </c>
       <c r="I7">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -1041,7 +1041,7 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1083,7 +1083,7 @@
         <v>27</v>
       </c>
       <c r="I11">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="I13">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>29</v>
       </c>
       <c r="I15">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
@@ -1253,7 +1253,7 @@
         <v>29</v>
       </c>
       <c r="I17">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -1295,7 +1295,7 @@
         <v>33</v>
       </c>
       <c r="I19">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -1359,7 +1359,7 @@
         <v>33</v>
       </c>
       <c r="I21">
-        <v>30300</v>
+        <v>3478</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
